--- a/python/uploaded/sample_transactions.xlsx
+++ b/python/uploaded/sample_transactions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AmirGitDrive\Python\IrbrokerTransactionReportAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\amirs\AmirGitDrive\IrbrokerTransactionReportAnalysis\python\uploaded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43847061-5898-43A5-BCC6-4DCD07F3EC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF5A546-4197-4F2A-8C12-05F48FF1BDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -697,7 +697,7 @@
     <t>جمع:</t>
   </si>
   <si>
-    <t xml:space="preserve">دريافت واريز 000 سامان </t>
+    <t xml:space="preserve">دريافت واريز 00000 سامان </t>
   </si>
 </sst>
 </file>
@@ -1081,21 +1081,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" customWidth="1"/>
-    <col min="2" max="2" width="50.8984375" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" customWidth="1"/>
-    <col min="6" max="6" width="20.8984375" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="50.875" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>78</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>78</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>85</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>85</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>85</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>89</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>91</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>91</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>91</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>91</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>98</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>98</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>101</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>103</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>105</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>105</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>105</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>109</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>109</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>109</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>109</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>115</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>115</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>118</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>118</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>121</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>121</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>121</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>121</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>121</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>127</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>127</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>127</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>127</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>132</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>132</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>132</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>132</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>137</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>137</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>137</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>137</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>137</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>137</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>137</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>137</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>146</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>146</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>146</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>146</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>146</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>146</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>146</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>146</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>146</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>146</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>157</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>157</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>160</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>162</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>162</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>162</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>162</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>167</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>167</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>167</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>167</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>167</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>173</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>173</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>173</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>173</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>173</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>179</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>181</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>181</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>181</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>181</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>181</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>181</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>181</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>189</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>189</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>189</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>189</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>189</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>189</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>189</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>189</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>189</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>199</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>199</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>202</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>202</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>205</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>205</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>205</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>209</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>209</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>212</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>212</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>212</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>212</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>212</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>212</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>219</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>219</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>219</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>219</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>224</v>
       </c>
@@ -4671,1050 +4671,6 @@
     </row>
   </sheetData>
   <mergeCells count="1074">
-    <mergeCell ref="A1"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="F1"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="A4"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="D4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="A5"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="C5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="C6"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="D7"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="F7"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="B8"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="D8"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="A9"/>
-    <mergeCell ref="B9"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="D9"/>
-    <mergeCell ref="E9"/>
-    <mergeCell ref="F9"/>
-    <mergeCell ref="A10"/>
-    <mergeCell ref="B10"/>
-    <mergeCell ref="C10"/>
-    <mergeCell ref="D10"/>
-    <mergeCell ref="E10"/>
-    <mergeCell ref="F10"/>
-    <mergeCell ref="A11"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11"/>
-    <mergeCell ref="D11"/>
-    <mergeCell ref="E11"/>
-    <mergeCell ref="F11"/>
-    <mergeCell ref="A12"/>
-    <mergeCell ref="B12"/>
-    <mergeCell ref="C12"/>
-    <mergeCell ref="D12"/>
-    <mergeCell ref="E12"/>
-    <mergeCell ref="F12"/>
-    <mergeCell ref="A13"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="D13"/>
-    <mergeCell ref="E13"/>
-    <mergeCell ref="F13"/>
-    <mergeCell ref="A14"/>
-    <mergeCell ref="B14"/>
-    <mergeCell ref="C14"/>
-    <mergeCell ref="D14"/>
-    <mergeCell ref="E14"/>
-    <mergeCell ref="F14"/>
-    <mergeCell ref="A15"/>
-    <mergeCell ref="B15"/>
-    <mergeCell ref="C15"/>
-    <mergeCell ref="D15"/>
-    <mergeCell ref="E15"/>
-    <mergeCell ref="F15"/>
-    <mergeCell ref="A16"/>
-    <mergeCell ref="B16"/>
-    <mergeCell ref="C16"/>
-    <mergeCell ref="D16"/>
-    <mergeCell ref="E16"/>
-    <mergeCell ref="F16"/>
-    <mergeCell ref="A17"/>
-    <mergeCell ref="B17"/>
-    <mergeCell ref="C17"/>
-    <mergeCell ref="D17"/>
-    <mergeCell ref="E17"/>
-    <mergeCell ref="F17"/>
-    <mergeCell ref="A18"/>
-    <mergeCell ref="B18"/>
-    <mergeCell ref="C18"/>
-    <mergeCell ref="D18"/>
-    <mergeCell ref="E18"/>
-    <mergeCell ref="F18"/>
-    <mergeCell ref="A19"/>
-    <mergeCell ref="B19"/>
-    <mergeCell ref="C19"/>
-    <mergeCell ref="D19"/>
-    <mergeCell ref="E19"/>
-    <mergeCell ref="F19"/>
-    <mergeCell ref="A20"/>
-    <mergeCell ref="B20"/>
-    <mergeCell ref="C20"/>
-    <mergeCell ref="D20"/>
-    <mergeCell ref="E20"/>
-    <mergeCell ref="F20"/>
-    <mergeCell ref="A21"/>
-    <mergeCell ref="B21"/>
-    <mergeCell ref="C21"/>
-    <mergeCell ref="D21"/>
-    <mergeCell ref="E21"/>
-    <mergeCell ref="F21"/>
-    <mergeCell ref="A22"/>
-    <mergeCell ref="B22"/>
-    <mergeCell ref="C22"/>
-    <mergeCell ref="D22"/>
-    <mergeCell ref="E22"/>
-    <mergeCell ref="F22"/>
-    <mergeCell ref="A23"/>
-    <mergeCell ref="B23"/>
-    <mergeCell ref="C23"/>
-    <mergeCell ref="D23"/>
-    <mergeCell ref="E23"/>
-    <mergeCell ref="F23"/>
-    <mergeCell ref="A24"/>
-    <mergeCell ref="B24"/>
-    <mergeCell ref="C24"/>
-    <mergeCell ref="D24"/>
-    <mergeCell ref="E24"/>
-    <mergeCell ref="F24"/>
-    <mergeCell ref="A25"/>
-    <mergeCell ref="B25"/>
-    <mergeCell ref="C25"/>
-    <mergeCell ref="D25"/>
-    <mergeCell ref="E25"/>
-    <mergeCell ref="F25"/>
-    <mergeCell ref="A26"/>
-    <mergeCell ref="B26"/>
-    <mergeCell ref="C26"/>
-    <mergeCell ref="D26"/>
-    <mergeCell ref="E26"/>
-    <mergeCell ref="F26"/>
-    <mergeCell ref="A27"/>
-    <mergeCell ref="B27"/>
-    <mergeCell ref="C27"/>
-    <mergeCell ref="D27"/>
-    <mergeCell ref="E27"/>
-    <mergeCell ref="F27"/>
-    <mergeCell ref="A28"/>
-    <mergeCell ref="B28"/>
-    <mergeCell ref="C28"/>
-    <mergeCell ref="D28"/>
-    <mergeCell ref="E28"/>
-    <mergeCell ref="F28"/>
-    <mergeCell ref="A29"/>
-    <mergeCell ref="B29"/>
-    <mergeCell ref="C29"/>
-    <mergeCell ref="D29"/>
-    <mergeCell ref="E29"/>
-    <mergeCell ref="F29"/>
-    <mergeCell ref="A30"/>
-    <mergeCell ref="B30"/>
-    <mergeCell ref="C30"/>
-    <mergeCell ref="D30"/>
-    <mergeCell ref="E30"/>
-    <mergeCell ref="F30"/>
-    <mergeCell ref="A31"/>
-    <mergeCell ref="B31"/>
-    <mergeCell ref="C31"/>
-    <mergeCell ref="D31"/>
-    <mergeCell ref="E31"/>
-    <mergeCell ref="F31"/>
-    <mergeCell ref="A32"/>
-    <mergeCell ref="B32"/>
-    <mergeCell ref="C32"/>
-    <mergeCell ref="D32"/>
-    <mergeCell ref="E32"/>
-    <mergeCell ref="F32"/>
-    <mergeCell ref="A33"/>
-    <mergeCell ref="B33"/>
-    <mergeCell ref="C33"/>
-    <mergeCell ref="D33"/>
-    <mergeCell ref="E33"/>
-    <mergeCell ref="F33"/>
-    <mergeCell ref="A34"/>
-    <mergeCell ref="B34"/>
-    <mergeCell ref="C34"/>
-    <mergeCell ref="D34"/>
-    <mergeCell ref="E34"/>
-    <mergeCell ref="F34"/>
-    <mergeCell ref="A35"/>
-    <mergeCell ref="B35"/>
-    <mergeCell ref="C35"/>
-    <mergeCell ref="D35"/>
-    <mergeCell ref="E35"/>
-    <mergeCell ref="F35"/>
-    <mergeCell ref="A36"/>
-    <mergeCell ref="B36"/>
-    <mergeCell ref="C36"/>
-    <mergeCell ref="D36"/>
-    <mergeCell ref="E36"/>
-    <mergeCell ref="F36"/>
-    <mergeCell ref="A37"/>
-    <mergeCell ref="B37"/>
-    <mergeCell ref="C37"/>
-    <mergeCell ref="D37"/>
-    <mergeCell ref="E37"/>
-    <mergeCell ref="F37"/>
-    <mergeCell ref="A38"/>
-    <mergeCell ref="B38"/>
-    <mergeCell ref="C38"/>
-    <mergeCell ref="D38"/>
-    <mergeCell ref="E38"/>
-    <mergeCell ref="F38"/>
-    <mergeCell ref="A39"/>
-    <mergeCell ref="B39"/>
-    <mergeCell ref="C39"/>
-    <mergeCell ref="D39"/>
-    <mergeCell ref="E39"/>
-    <mergeCell ref="F39"/>
-    <mergeCell ref="A40"/>
-    <mergeCell ref="B40"/>
-    <mergeCell ref="C40"/>
-    <mergeCell ref="D40"/>
-    <mergeCell ref="E40"/>
-    <mergeCell ref="F40"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="C41"/>
-    <mergeCell ref="D41"/>
-    <mergeCell ref="E41"/>
-    <mergeCell ref="F41"/>
-    <mergeCell ref="A42"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="C42"/>
-    <mergeCell ref="D42"/>
-    <mergeCell ref="E42"/>
-    <mergeCell ref="F42"/>
-    <mergeCell ref="A43"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="C43"/>
-    <mergeCell ref="D43"/>
-    <mergeCell ref="E43"/>
-    <mergeCell ref="F43"/>
-    <mergeCell ref="A44"/>
-    <mergeCell ref="B44"/>
-    <mergeCell ref="C44"/>
-    <mergeCell ref="D44"/>
-    <mergeCell ref="E44"/>
-    <mergeCell ref="F44"/>
-    <mergeCell ref="A45"/>
-    <mergeCell ref="B45"/>
-    <mergeCell ref="C45"/>
-    <mergeCell ref="D45"/>
-    <mergeCell ref="E45"/>
-    <mergeCell ref="F45"/>
-    <mergeCell ref="A46"/>
-    <mergeCell ref="B46"/>
-    <mergeCell ref="C46"/>
-    <mergeCell ref="D46"/>
-    <mergeCell ref="E46"/>
-    <mergeCell ref="F46"/>
-    <mergeCell ref="A47"/>
-    <mergeCell ref="B47"/>
-    <mergeCell ref="C47"/>
-    <mergeCell ref="D47"/>
-    <mergeCell ref="E47"/>
-    <mergeCell ref="F47"/>
-    <mergeCell ref="A48"/>
-    <mergeCell ref="B48"/>
-    <mergeCell ref="C48"/>
-    <mergeCell ref="D48"/>
-    <mergeCell ref="E48"/>
-    <mergeCell ref="F48"/>
-    <mergeCell ref="A49"/>
-    <mergeCell ref="B49"/>
-    <mergeCell ref="C49"/>
-    <mergeCell ref="D49"/>
-    <mergeCell ref="E49"/>
-    <mergeCell ref="F49"/>
-    <mergeCell ref="A50"/>
-    <mergeCell ref="B50"/>
-    <mergeCell ref="C50"/>
-    <mergeCell ref="D50"/>
-    <mergeCell ref="E50"/>
-    <mergeCell ref="F50"/>
-    <mergeCell ref="A51"/>
-    <mergeCell ref="B51"/>
-    <mergeCell ref="C51"/>
-    <mergeCell ref="D51"/>
-    <mergeCell ref="E51"/>
-    <mergeCell ref="F51"/>
-    <mergeCell ref="A52"/>
-    <mergeCell ref="B52"/>
-    <mergeCell ref="C52"/>
-    <mergeCell ref="D52"/>
-    <mergeCell ref="E52"/>
-    <mergeCell ref="F52"/>
-    <mergeCell ref="A53"/>
-    <mergeCell ref="B53"/>
-    <mergeCell ref="C53"/>
-    <mergeCell ref="D53"/>
-    <mergeCell ref="E53"/>
-    <mergeCell ref="F53"/>
-    <mergeCell ref="A54"/>
-    <mergeCell ref="B54"/>
-    <mergeCell ref="C54"/>
-    <mergeCell ref="D54"/>
-    <mergeCell ref="E54"/>
-    <mergeCell ref="F54"/>
-    <mergeCell ref="A55"/>
-    <mergeCell ref="B55"/>
-    <mergeCell ref="C55"/>
-    <mergeCell ref="D55"/>
-    <mergeCell ref="E55"/>
-    <mergeCell ref="F55"/>
-    <mergeCell ref="A56"/>
-    <mergeCell ref="B56"/>
-    <mergeCell ref="C56"/>
-    <mergeCell ref="D56"/>
-    <mergeCell ref="E56"/>
-    <mergeCell ref="F56"/>
-    <mergeCell ref="A57"/>
-    <mergeCell ref="B57"/>
-    <mergeCell ref="C57"/>
-    <mergeCell ref="D57"/>
-    <mergeCell ref="E57"/>
-    <mergeCell ref="F57"/>
-    <mergeCell ref="A58"/>
-    <mergeCell ref="B58"/>
-    <mergeCell ref="C58"/>
-    <mergeCell ref="D58"/>
-    <mergeCell ref="E58"/>
-    <mergeCell ref="F58"/>
-    <mergeCell ref="A59"/>
-    <mergeCell ref="B59"/>
-    <mergeCell ref="C59"/>
-    <mergeCell ref="D59"/>
-    <mergeCell ref="E59"/>
-    <mergeCell ref="F59"/>
-    <mergeCell ref="A60"/>
-    <mergeCell ref="B60"/>
-    <mergeCell ref="C60"/>
-    <mergeCell ref="D60"/>
-    <mergeCell ref="E60"/>
-    <mergeCell ref="F60"/>
-    <mergeCell ref="A61"/>
-    <mergeCell ref="B61"/>
-    <mergeCell ref="C61"/>
-    <mergeCell ref="D61"/>
-    <mergeCell ref="E61"/>
-    <mergeCell ref="F61"/>
-    <mergeCell ref="A62"/>
-    <mergeCell ref="B62"/>
-    <mergeCell ref="C62"/>
-    <mergeCell ref="D62"/>
-    <mergeCell ref="E62"/>
-    <mergeCell ref="F62"/>
-    <mergeCell ref="A63"/>
-    <mergeCell ref="B63"/>
-    <mergeCell ref="C63"/>
-    <mergeCell ref="D63"/>
-    <mergeCell ref="E63"/>
-    <mergeCell ref="F63"/>
-    <mergeCell ref="A64"/>
-    <mergeCell ref="B64"/>
-    <mergeCell ref="C64"/>
-    <mergeCell ref="D64"/>
-    <mergeCell ref="E64"/>
-    <mergeCell ref="F64"/>
-    <mergeCell ref="A65"/>
-    <mergeCell ref="B65"/>
-    <mergeCell ref="C65"/>
-    <mergeCell ref="D65"/>
-    <mergeCell ref="E65"/>
-    <mergeCell ref="F65"/>
-    <mergeCell ref="A66"/>
-    <mergeCell ref="B66"/>
-    <mergeCell ref="C66"/>
-    <mergeCell ref="D66"/>
-    <mergeCell ref="E66"/>
-    <mergeCell ref="F66"/>
-    <mergeCell ref="A67"/>
-    <mergeCell ref="B67"/>
-    <mergeCell ref="C67"/>
-    <mergeCell ref="D67"/>
-    <mergeCell ref="E67"/>
-    <mergeCell ref="F67"/>
-    <mergeCell ref="A68"/>
-    <mergeCell ref="B68"/>
-    <mergeCell ref="C68"/>
-    <mergeCell ref="D68"/>
-    <mergeCell ref="E68"/>
-    <mergeCell ref="F68"/>
-    <mergeCell ref="A69"/>
-    <mergeCell ref="B69"/>
-    <mergeCell ref="C69"/>
-    <mergeCell ref="D69"/>
-    <mergeCell ref="E69"/>
-    <mergeCell ref="F69"/>
-    <mergeCell ref="A70"/>
-    <mergeCell ref="B70"/>
-    <mergeCell ref="C70"/>
-    <mergeCell ref="D70"/>
-    <mergeCell ref="E70"/>
-    <mergeCell ref="F70"/>
-    <mergeCell ref="A71"/>
-    <mergeCell ref="B71"/>
-    <mergeCell ref="C71"/>
-    <mergeCell ref="D71"/>
-    <mergeCell ref="E71"/>
-    <mergeCell ref="F71"/>
-    <mergeCell ref="A72"/>
-    <mergeCell ref="B72"/>
-    <mergeCell ref="C72"/>
-    <mergeCell ref="D72"/>
-    <mergeCell ref="E72"/>
-    <mergeCell ref="F72"/>
-    <mergeCell ref="A73"/>
-    <mergeCell ref="B73"/>
-    <mergeCell ref="C73"/>
-    <mergeCell ref="D73"/>
-    <mergeCell ref="E73"/>
-    <mergeCell ref="F73"/>
-    <mergeCell ref="A74"/>
-    <mergeCell ref="B74"/>
-    <mergeCell ref="C74"/>
-    <mergeCell ref="D74"/>
-    <mergeCell ref="E74"/>
-    <mergeCell ref="F74"/>
-    <mergeCell ref="A75"/>
-    <mergeCell ref="B75"/>
-    <mergeCell ref="C75"/>
-    <mergeCell ref="D75"/>
-    <mergeCell ref="E75"/>
-    <mergeCell ref="F75"/>
-    <mergeCell ref="A76"/>
-    <mergeCell ref="B76"/>
-    <mergeCell ref="C76"/>
-    <mergeCell ref="D76"/>
-    <mergeCell ref="E76"/>
-    <mergeCell ref="F76"/>
-    <mergeCell ref="A77"/>
-    <mergeCell ref="B77"/>
-    <mergeCell ref="C77"/>
-    <mergeCell ref="D77"/>
-    <mergeCell ref="E77"/>
-    <mergeCell ref="F77"/>
-    <mergeCell ref="A78"/>
-    <mergeCell ref="B78"/>
-    <mergeCell ref="C78"/>
-    <mergeCell ref="D78"/>
-    <mergeCell ref="E78"/>
-    <mergeCell ref="F78"/>
-    <mergeCell ref="A79"/>
-    <mergeCell ref="B79"/>
-    <mergeCell ref="C79"/>
-    <mergeCell ref="D79"/>
-    <mergeCell ref="E79"/>
-    <mergeCell ref="F79"/>
-    <mergeCell ref="A80"/>
-    <mergeCell ref="B80"/>
-    <mergeCell ref="C80"/>
-    <mergeCell ref="D80"/>
-    <mergeCell ref="E80"/>
-    <mergeCell ref="F80"/>
-    <mergeCell ref="A81"/>
-    <mergeCell ref="B81"/>
-    <mergeCell ref="C81"/>
-    <mergeCell ref="D81"/>
-    <mergeCell ref="E81"/>
-    <mergeCell ref="F81"/>
-    <mergeCell ref="A82"/>
-    <mergeCell ref="B82"/>
-    <mergeCell ref="C82"/>
-    <mergeCell ref="D82"/>
-    <mergeCell ref="E82"/>
-    <mergeCell ref="F82"/>
-    <mergeCell ref="A83"/>
-    <mergeCell ref="B83"/>
-    <mergeCell ref="C83"/>
-    <mergeCell ref="D83"/>
-    <mergeCell ref="E83"/>
-    <mergeCell ref="F83"/>
-    <mergeCell ref="A84"/>
-    <mergeCell ref="B84"/>
-    <mergeCell ref="C84"/>
-    <mergeCell ref="D84"/>
-    <mergeCell ref="E84"/>
-    <mergeCell ref="F84"/>
-    <mergeCell ref="A85"/>
-    <mergeCell ref="B85"/>
-    <mergeCell ref="C85"/>
-    <mergeCell ref="D85"/>
-    <mergeCell ref="E85"/>
-    <mergeCell ref="F85"/>
-    <mergeCell ref="A86"/>
-    <mergeCell ref="B86"/>
-    <mergeCell ref="C86"/>
-    <mergeCell ref="D86"/>
-    <mergeCell ref="E86"/>
-    <mergeCell ref="F86"/>
-    <mergeCell ref="A87"/>
-    <mergeCell ref="B87"/>
-    <mergeCell ref="C87"/>
-    <mergeCell ref="D87"/>
-    <mergeCell ref="E87"/>
-    <mergeCell ref="F87"/>
-    <mergeCell ref="A88"/>
-    <mergeCell ref="B88"/>
-    <mergeCell ref="C88"/>
-    <mergeCell ref="D88"/>
-    <mergeCell ref="E88"/>
-    <mergeCell ref="F88"/>
-    <mergeCell ref="A89"/>
-    <mergeCell ref="B89"/>
-    <mergeCell ref="C89"/>
-    <mergeCell ref="D89"/>
-    <mergeCell ref="E89"/>
-    <mergeCell ref="F89"/>
-    <mergeCell ref="A90"/>
-    <mergeCell ref="B90"/>
-    <mergeCell ref="C90"/>
-    <mergeCell ref="D90"/>
-    <mergeCell ref="E90"/>
-    <mergeCell ref="F90"/>
-    <mergeCell ref="A91"/>
-    <mergeCell ref="B91"/>
-    <mergeCell ref="C91"/>
-    <mergeCell ref="D91"/>
-    <mergeCell ref="E91"/>
-    <mergeCell ref="F91"/>
-    <mergeCell ref="A92"/>
-    <mergeCell ref="B92"/>
-    <mergeCell ref="C92"/>
-    <mergeCell ref="D92"/>
-    <mergeCell ref="E92"/>
-    <mergeCell ref="F92"/>
-    <mergeCell ref="A93"/>
-    <mergeCell ref="B93"/>
-    <mergeCell ref="C93"/>
-    <mergeCell ref="D93"/>
-    <mergeCell ref="E93"/>
-    <mergeCell ref="F93"/>
-    <mergeCell ref="A94"/>
-    <mergeCell ref="B94"/>
-    <mergeCell ref="C94"/>
-    <mergeCell ref="D94"/>
-    <mergeCell ref="E94"/>
-    <mergeCell ref="F94"/>
-    <mergeCell ref="A95"/>
-    <mergeCell ref="B95"/>
-    <mergeCell ref="C95"/>
-    <mergeCell ref="D95"/>
-    <mergeCell ref="E95"/>
-    <mergeCell ref="F95"/>
-    <mergeCell ref="A96"/>
-    <mergeCell ref="B96"/>
-    <mergeCell ref="C96"/>
-    <mergeCell ref="D96"/>
-    <mergeCell ref="E96"/>
-    <mergeCell ref="F96"/>
-    <mergeCell ref="A97"/>
-    <mergeCell ref="B97"/>
-    <mergeCell ref="C97"/>
-    <mergeCell ref="D97"/>
-    <mergeCell ref="E97"/>
-    <mergeCell ref="F97"/>
-    <mergeCell ref="A98"/>
-    <mergeCell ref="B98"/>
-    <mergeCell ref="C98"/>
-    <mergeCell ref="D98"/>
-    <mergeCell ref="E98"/>
-    <mergeCell ref="F98"/>
-    <mergeCell ref="A99"/>
-    <mergeCell ref="B99"/>
-    <mergeCell ref="C99"/>
-    <mergeCell ref="D99"/>
-    <mergeCell ref="E99"/>
-    <mergeCell ref="F99"/>
-    <mergeCell ref="A100"/>
-    <mergeCell ref="B100"/>
-    <mergeCell ref="C100"/>
-    <mergeCell ref="D100"/>
-    <mergeCell ref="E100"/>
-    <mergeCell ref="F100"/>
-    <mergeCell ref="A101"/>
-    <mergeCell ref="B101"/>
-    <mergeCell ref="C101"/>
-    <mergeCell ref="D101"/>
-    <mergeCell ref="E101"/>
-    <mergeCell ref="F101"/>
-    <mergeCell ref="A102"/>
-    <mergeCell ref="B102"/>
-    <mergeCell ref="C102"/>
-    <mergeCell ref="D102"/>
-    <mergeCell ref="E102"/>
-    <mergeCell ref="F102"/>
-    <mergeCell ref="A103"/>
-    <mergeCell ref="B103"/>
-    <mergeCell ref="C103"/>
-    <mergeCell ref="D103"/>
-    <mergeCell ref="E103"/>
-    <mergeCell ref="F103"/>
-    <mergeCell ref="A104"/>
-    <mergeCell ref="B104"/>
-    <mergeCell ref="C104"/>
-    <mergeCell ref="D104"/>
-    <mergeCell ref="E104"/>
-    <mergeCell ref="F104"/>
-    <mergeCell ref="A105"/>
-    <mergeCell ref="B105"/>
-    <mergeCell ref="C105"/>
-    <mergeCell ref="D105"/>
-    <mergeCell ref="E105"/>
-    <mergeCell ref="F105"/>
-    <mergeCell ref="A106"/>
-    <mergeCell ref="B106"/>
-    <mergeCell ref="C106"/>
-    <mergeCell ref="D106"/>
-    <mergeCell ref="E106"/>
-    <mergeCell ref="F106"/>
-    <mergeCell ref="A107"/>
-    <mergeCell ref="B107"/>
-    <mergeCell ref="C107"/>
-    <mergeCell ref="D107"/>
-    <mergeCell ref="E107"/>
-    <mergeCell ref="F107"/>
-    <mergeCell ref="A108"/>
-    <mergeCell ref="B108"/>
-    <mergeCell ref="C108"/>
-    <mergeCell ref="D108"/>
-    <mergeCell ref="E108"/>
-    <mergeCell ref="F108"/>
-    <mergeCell ref="A109"/>
-    <mergeCell ref="B109"/>
-    <mergeCell ref="C109"/>
-    <mergeCell ref="D109"/>
-    <mergeCell ref="E109"/>
-    <mergeCell ref="F109"/>
-    <mergeCell ref="A110"/>
-    <mergeCell ref="B110"/>
-    <mergeCell ref="C110"/>
-    <mergeCell ref="D110"/>
-    <mergeCell ref="E110"/>
-    <mergeCell ref="F110"/>
-    <mergeCell ref="A111"/>
-    <mergeCell ref="B111"/>
-    <mergeCell ref="C111"/>
-    <mergeCell ref="D111"/>
-    <mergeCell ref="E111"/>
-    <mergeCell ref="F111"/>
-    <mergeCell ref="A112"/>
-    <mergeCell ref="B112"/>
-    <mergeCell ref="C112"/>
-    <mergeCell ref="D112"/>
-    <mergeCell ref="E112"/>
-    <mergeCell ref="F112"/>
-    <mergeCell ref="A113"/>
-    <mergeCell ref="B113"/>
-    <mergeCell ref="C113"/>
-    <mergeCell ref="D113"/>
-    <mergeCell ref="E113"/>
-    <mergeCell ref="F113"/>
-    <mergeCell ref="A114"/>
-    <mergeCell ref="B114"/>
-    <mergeCell ref="C114"/>
-    <mergeCell ref="D114"/>
-    <mergeCell ref="E114"/>
-    <mergeCell ref="F114"/>
-    <mergeCell ref="A115"/>
-    <mergeCell ref="B115"/>
-    <mergeCell ref="C115"/>
-    <mergeCell ref="D115"/>
-    <mergeCell ref="E115"/>
-    <mergeCell ref="F115"/>
-    <mergeCell ref="A116"/>
-    <mergeCell ref="B116"/>
-    <mergeCell ref="C116"/>
-    <mergeCell ref="D116"/>
-    <mergeCell ref="E116"/>
-    <mergeCell ref="F116"/>
-    <mergeCell ref="A117"/>
-    <mergeCell ref="B117"/>
-    <mergeCell ref="C117"/>
-    <mergeCell ref="D117"/>
-    <mergeCell ref="E117"/>
-    <mergeCell ref="F117"/>
-    <mergeCell ref="A118"/>
-    <mergeCell ref="B118"/>
-    <mergeCell ref="C118"/>
-    <mergeCell ref="D118"/>
-    <mergeCell ref="E118"/>
-    <mergeCell ref="F118"/>
-    <mergeCell ref="A119"/>
-    <mergeCell ref="B119"/>
-    <mergeCell ref="C119"/>
-    <mergeCell ref="D119"/>
-    <mergeCell ref="E119"/>
-    <mergeCell ref="F119"/>
-    <mergeCell ref="A120"/>
-    <mergeCell ref="B120"/>
-    <mergeCell ref="C120"/>
-    <mergeCell ref="D120"/>
-    <mergeCell ref="E120"/>
-    <mergeCell ref="F120"/>
-    <mergeCell ref="A121"/>
-    <mergeCell ref="B121"/>
-    <mergeCell ref="C121"/>
-    <mergeCell ref="D121"/>
-    <mergeCell ref="E121"/>
-    <mergeCell ref="F121"/>
-    <mergeCell ref="A122"/>
-    <mergeCell ref="B122"/>
-    <mergeCell ref="C122"/>
-    <mergeCell ref="D122"/>
-    <mergeCell ref="E122"/>
-    <mergeCell ref="F122"/>
-    <mergeCell ref="A123"/>
-    <mergeCell ref="B123"/>
-    <mergeCell ref="C123"/>
-    <mergeCell ref="D123"/>
-    <mergeCell ref="E123"/>
-    <mergeCell ref="F123"/>
-    <mergeCell ref="A124"/>
-    <mergeCell ref="B124"/>
-    <mergeCell ref="C124"/>
-    <mergeCell ref="D124"/>
-    <mergeCell ref="E124"/>
-    <mergeCell ref="F124"/>
-    <mergeCell ref="A125"/>
-    <mergeCell ref="B125"/>
-    <mergeCell ref="C125"/>
-    <mergeCell ref="D125"/>
-    <mergeCell ref="E125"/>
-    <mergeCell ref="F125"/>
-    <mergeCell ref="A126"/>
-    <mergeCell ref="B126"/>
-    <mergeCell ref="C126"/>
-    <mergeCell ref="D126"/>
-    <mergeCell ref="E126"/>
-    <mergeCell ref="F126"/>
-    <mergeCell ref="A127"/>
-    <mergeCell ref="B127"/>
-    <mergeCell ref="C127"/>
-    <mergeCell ref="D127"/>
-    <mergeCell ref="E127"/>
-    <mergeCell ref="F127"/>
-    <mergeCell ref="A128"/>
-    <mergeCell ref="B128"/>
-    <mergeCell ref="C128"/>
-    <mergeCell ref="D128"/>
-    <mergeCell ref="E128"/>
-    <mergeCell ref="F128"/>
-    <mergeCell ref="A129"/>
-    <mergeCell ref="B129"/>
-    <mergeCell ref="C129"/>
-    <mergeCell ref="D129"/>
-    <mergeCell ref="E129"/>
-    <mergeCell ref="F129"/>
-    <mergeCell ref="A130"/>
-    <mergeCell ref="B130"/>
-    <mergeCell ref="C130"/>
-    <mergeCell ref="D130"/>
-    <mergeCell ref="E130"/>
-    <mergeCell ref="F130"/>
-    <mergeCell ref="A131"/>
-    <mergeCell ref="B131"/>
-    <mergeCell ref="C131"/>
-    <mergeCell ref="D131"/>
-    <mergeCell ref="E131"/>
-    <mergeCell ref="F131"/>
-    <mergeCell ref="A132"/>
-    <mergeCell ref="B132"/>
-    <mergeCell ref="C132"/>
-    <mergeCell ref="D132"/>
-    <mergeCell ref="E132"/>
-    <mergeCell ref="F132"/>
-    <mergeCell ref="A133"/>
-    <mergeCell ref="B133"/>
-    <mergeCell ref="C133"/>
-    <mergeCell ref="D133"/>
-    <mergeCell ref="E133"/>
-    <mergeCell ref="F133"/>
-    <mergeCell ref="A134"/>
-    <mergeCell ref="B134"/>
-    <mergeCell ref="C134"/>
-    <mergeCell ref="D134"/>
-    <mergeCell ref="E134"/>
-    <mergeCell ref="F134"/>
-    <mergeCell ref="A135"/>
-    <mergeCell ref="B135"/>
-    <mergeCell ref="C135"/>
-    <mergeCell ref="D135"/>
-    <mergeCell ref="E135"/>
-    <mergeCell ref="F135"/>
-    <mergeCell ref="A136"/>
-    <mergeCell ref="B136"/>
-    <mergeCell ref="C136"/>
-    <mergeCell ref="D136"/>
-    <mergeCell ref="E136"/>
-    <mergeCell ref="F136"/>
-    <mergeCell ref="A137"/>
-    <mergeCell ref="B137"/>
-    <mergeCell ref="C137"/>
-    <mergeCell ref="D137"/>
-    <mergeCell ref="E137"/>
-    <mergeCell ref="F137"/>
-    <mergeCell ref="A138"/>
-    <mergeCell ref="B138"/>
-    <mergeCell ref="C138"/>
-    <mergeCell ref="D138"/>
-    <mergeCell ref="E138"/>
-    <mergeCell ref="F138"/>
-    <mergeCell ref="A139"/>
-    <mergeCell ref="B139"/>
-    <mergeCell ref="C139"/>
-    <mergeCell ref="D139"/>
-    <mergeCell ref="E139"/>
-    <mergeCell ref="F139"/>
-    <mergeCell ref="A140"/>
-    <mergeCell ref="B140"/>
-    <mergeCell ref="C140"/>
-    <mergeCell ref="D140"/>
-    <mergeCell ref="E140"/>
-    <mergeCell ref="F140"/>
-    <mergeCell ref="A141"/>
-    <mergeCell ref="B141"/>
-    <mergeCell ref="C141"/>
-    <mergeCell ref="D141"/>
-    <mergeCell ref="E141"/>
-    <mergeCell ref="F141"/>
-    <mergeCell ref="A142"/>
-    <mergeCell ref="B142"/>
-    <mergeCell ref="C142"/>
-    <mergeCell ref="D142"/>
-    <mergeCell ref="E142"/>
-    <mergeCell ref="F142"/>
-    <mergeCell ref="A143"/>
-    <mergeCell ref="B143"/>
-    <mergeCell ref="C143"/>
-    <mergeCell ref="D143"/>
-    <mergeCell ref="E143"/>
-    <mergeCell ref="F143"/>
-    <mergeCell ref="A144"/>
-    <mergeCell ref="B144"/>
-    <mergeCell ref="C144"/>
-    <mergeCell ref="D144"/>
-    <mergeCell ref="E144"/>
-    <mergeCell ref="F144"/>
-    <mergeCell ref="A145"/>
-    <mergeCell ref="B145"/>
-    <mergeCell ref="C145"/>
-    <mergeCell ref="D145"/>
-    <mergeCell ref="E145"/>
-    <mergeCell ref="F145"/>
-    <mergeCell ref="A146"/>
-    <mergeCell ref="B146"/>
-    <mergeCell ref="C146"/>
-    <mergeCell ref="D146"/>
-    <mergeCell ref="E146"/>
-    <mergeCell ref="F146"/>
-    <mergeCell ref="A147"/>
-    <mergeCell ref="B147"/>
-    <mergeCell ref="C147"/>
-    <mergeCell ref="D147"/>
-    <mergeCell ref="E147"/>
-    <mergeCell ref="F147"/>
-    <mergeCell ref="A148"/>
-    <mergeCell ref="B148"/>
-    <mergeCell ref="C148"/>
-    <mergeCell ref="D148"/>
-    <mergeCell ref="E148"/>
-    <mergeCell ref="F148"/>
-    <mergeCell ref="A149"/>
-    <mergeCell ref="B149"/>
-    <mergeCell ref="C149"/>
-    <mergeCell ref="D149"/>
-    <mergeCell ref="E149"/>
-    <mergeCell ref="F149"/>
-    <mergeCell ref="A150"/>
-    <mergeCell ref="B150"/>
-    <mergeCell ref="C150"/>
-    <mergeCell ref="D150"/>
-    <mergeCell ref="E150"/>
-    <mergeCell ref="F150"/>
-    <mergeCell ref="A151"/>
-    <mergeCell ref="B151"/>
-    <mergeCell ref="C151"/>
-    <mergeCell ref="D151"/>
-    <mergeCell ref="E151"/>
-    <mergeCell ref="F151"/>
-    <mergeCell ref="A152"/>
-    <mergeCell ref="B152"/>
-    <mergeCell ref="C152"/>
-    <mergeCell ref="D152"/>
-    <mergeCell ref="E152"/>
-    <mergeCell ref="F152"/>
-    <mergeCell ref="A153"/>
-    <mergeCell ref="B153"/>
-    <mergeCell ref="C153"/>
-    <mergeCell ref="D153"/>
-    <mergeCell ref="E153"/>
-    <mergeCell ref="F153"/>
-    <mergeCell ref="A154"/>
-    <mergeCell ref="B154"/>
-    <mergeCell ref="C154"/>
-    <mergeCell ref="D154"/>
-    <mergeCell ref="E154"/>
-    <mergeCell ref="F154"/>
-    <mergeCell ref="A155"/>
-    <mergeCell ref="B155"/>
-    <mergeCell ref="C155"/>
-    <mergeCell ref="D155"/>
-    <mergeCell ref="E155"/>
-    <mergeCell ref="F155"/>
-    <mergeCell ref="A156"/>
-    <mergeCell ref="B156"/>
-    <mergeCell ref="C156"/>
-    <mergeCell ref="D156"/>
-    <mergeCell ref="E156"/>
-    <mergeCell ref="F156"/>
-    <mergeCell ref="A157"/>
-    <mergeCell ref="B157"/>
-    <mergeCell ref="C157"/>
-    <mergeCell ref="D157"/>
-    <mergeCell ref="E157"/>
-    <mergeCell ref="F157"/>
-    <mergeCell ref="A158"/>
-    <mergeCell ref="B158"/>
-    <mergeCell ref="C158"/>
-    <mergeCell ref="D158"/>
-    <mergeCell ref="E158"/>
-    <mergeCell ref="F158"/>
-    <mergeCell ref="A159"/>
-    <mergeCell ref="B159"/>
-    <mergeCell ref="C159"/>
-    <mergeCell ref="D159"/>
-    <mergeCell ref="E159"/>
-    <mergeCell ref="F159"/>
-    <mergeCell ref="A160"/>
-    <mergeCell ref="B160"/>
-    <mergeCell ref="C160"/>
-    <mergeCell ref="D160"/>
-    <mergeCell ref="E160"/>
-    <mergeCell ref="F160"/>
-    <mergeCell ref="A161"/>
-    <mergeCell ref="B161"/>
-    <mergeCell ref="C161"/>
-    <mergeCell ref="D161"/>
-    <mergeCell ref="E161"/>
-    <mergeCell ref="F161"/>
-    <mergeCell ref="A162"/>
-    <mergeCell ref="B162"/>
-    <mergeCell ref="C162"/>
-    <mergeCell ref="D162"/>
-    <mergeCell ref="E162"/>
-    <mergeCell ref="F162"/>
-    <mergeCell ref="A163"/>
-    <mergeCell ref="B163"/>
-    <mergeCell ref="C163"/>
-    <mergeCell ref="D163"/>
-    <mergeCell ref="E163"/>
-    <mergeCell ref="F163"/>
-    <mergeCell ref="A164"/>
-    <mergeCell ref="B164"/>
-    <mergeCell ref="C164"/>
-    <mergeCell ref="D164"/>
-    <mergeCell ref="E164"/>
-    <mergeCell ref="F164"/>
-    <mergeCell ref="A165"/>
-    <mergeCell ref="B165"/>
-    <mergeCell ref="C165"/>
-    <mergeCell ref="D165"/>
-    <mergeCell ref="E165"/>
-    <mergeCell ref="F165"/>
-    <mergeCell ref="A166"/>
-    <mergeCell ref="B166"/>
-    <mergeCell ref="C166"/>
-    <mergeCell ref="D166"/>
-    <mergeCell ref="E166"/>
-    <mergeCell ref="F166"/>
-    <mergeCell ref="A167"/>
-    <mergeCell ref="B167"/>
-    <mergeCell ref="C167"/>
-    <mergeCell ref="D167"/>
-    <mergeCell ref="E167"/>
-    <mergeCell ref="F167"/>
-    <mergeCell ref="A168"/>
-    <mergeCell ref="B168"/>
-    <mergeCell ref="C168"/>
-    <mergeCell ref="D168"/>
-    <mergeCell ref="E168"/>
-    <mergeCell ref="F168"/>
-    <mergeCell ref="A169"/>
-    <mergeCell ref="B169"/>
-    <mergeCell ref="C169"/>
-    <mergeCell ref="D169"/>
-    <mergeCell ref="E169"/>
-    <mergeCell ref="F169"/>
-    <mergeCell ref="A170"/>
-    <mergeCell ref="B170"/>
-    <mergeCell ref="C170"/>
-    <mergeCell ref="D170"/>
-    <mergeCell ref="E170"/>
-    <mergeCell ref="F170"/>
-    <mergeCell ref="A171"/>
-    <mergeCell ref="B171"/>
-    <mergeCell ref="C171"/>
-    <mergeCell ref="D171"/>
-    <mergeCell ref="E171"/>
-    <mergeCell ref="F171"/>
-    <mergeCell ref="A172"/>
-    <mergeCell ref="B172"/>
-    <mergeCell ref="C172"/>
-    <mergeCell ref="D172"/>
-    <mergeCell ref="E172"/>
-    <mergeCell ref="F172"/>
-    <mergeCell ref="A173"/>
-    <mergeCell ref="B173"/>
-    <mergeCell ref="C173"/>
-    <mergeCell ref="D173"/>
-    <mergeCell ref="E173"/>
-    <mergeCell ref="F173"/>
-    <mergeCell ref="A174"/>
-    <mergeCell ref="B174"/>
-    <mergeCell ref="C174"/>
-    <mergeCell ref="D174"/>
-    <mergeCell ref="E174"/>
-    <mergeCell ref="F174"/>
     <mergeCell ref="A178"/>
     <mergeCell ref="B178"/>
     <mergeCell ref="C178"/>
@@ -5745,6 +4701,1050 @@
     <mergeCell ref="D177"/>
     <mergeCell ref="E177"/>
     <mergeCell ref="F177"/>
+    <mergeCell ref="A172"/>
+    <mergeCell ref="B172"/>
+    <mergeCell ref="C172"/>
+    <mergeCell ref="D172"/>
+    <mergeCell ref="E172"/>
+    <mergeCell ref="F172"/>
+    <mergeCell ref="A173"/>
+    <mergeCell ref="B173"/>
+    <mergeCell ref="C173"/>
+    <mergeCell ref="D173"/>
+    <mergeCell ref="E173"/>
+    <mergeCell ref="F173"/>
+    <mergeCell ref="A174"/>
+    <mergeCell ref="B174"/>
+    <mergeCell ref="C174"/>
+    <mergeCell ref="D174"/>
+    <mergeCell ref="E174"/>
+    <mergeCell ref="F174"/>
+    <mergeCell ref="A169"/>
+    <mergeCell ref="B169"/>
+    <mergeCell ref="C169"/>
+    <mergeCell ref="D169"/>
+    <mergeCell ref="E169"/>
+    <mergeCell ref="F169"/>
+    <mergeCell ref="A170"/>
+    <mergeCell ref="B170"/>
+    <mergeCell ref="C170"/>
+    <mergeCell ref="D170"/>
+    <mergeCell ref="E170"/>
+    <mergeCell ref="F170"/>
+    <mergeCell ref="A171"/>
+    <mergeCell ref="B171"/>
+    <mergeCell ref="C171"/>
+    <mergeCell ref="D171"/>
+    <mergeCell ref="E171"/>
+    <mergeCell ref="F171"/>
+    <mergeCell ref="A166"/>
+    <mergeCell ref="B166"/>
+    <mergeCell ref="C166"/>
+    <mergeCell ref="D166"/>
+    <mergeCell ref="E166"/>
+    <mergeCell ref="F166"/>
+    <mergeCell ref="A167"/>
+    <mergeCell ref="B167"/>
+    <mergeCell ref="C167"/>
+    <mergeCell ref="D167"/>
+    <mergeCell ref="E167"/>
+    <mergeCell ref="F167"/>
+    <mergeCell ref="A168"/>
+    <mergeCell ref="B168"/>
+    <mergeCell ref="C168"/>
+    <mergeCell ref="D168"/>
+    <mergeCell ref="E168"/>
+    <mergeCell ref="F168"/>
+    <mergeCell ref="A163"/>
+    <mergeCell ref="B163"/>
+    <mergeCell ref="C163"/>
+    <mergeCell ref="D163"/>
+    <mergeCell ref="E163"/>
+    <mergeCell ref="F163"/>
+    <mergeCell ref="A164"/>
+    <mergeCell ref="B164"/>
+    <mergeCell ref="C164"/>
+    <mergeCell ref="D164"/>
+    <mergeCell ref="E164"/>
+    <mergeCell ref="F164"/>
+    <mergeCell ref="A165"/>
+    <mergeCell ref="B165"/>
+    <mergeCell ref="C165"/>
+    <mergeCell ref="D165"/>
+    <mergeCell ref="E165"/>
+    <mergeCell ref="F165"/>
+    <mergeCell ref="A160"/>
+    <mergeCell ref="B160"/>
+    <mergeCell ref="C160"/>
+    <mergeCell ref="D160"/>
+    <mergeCell ref="E160"/>
+    <mergeCell ref="F160"/>
+    <mergeCell ref="A161"/>
+    <mergeCell ref="B161"/>
+    <mergeCell ref="C161"/>
+    <mergeCell ref="D161"/>
+    <mergeCell ref="E161"/>
+    <mergeCell ref="F161"/>
+    <mergeCell ref="A162"/>
+    <mergeCell ref="B162"/>
+    <mergeCell ref="C162"/>
+    <mergeCell ref="D162"/>
+    <mergeCell ref="E162"/>
+    <mergeCell ref="F162"/>
+    <mergeCell ref="A157"/>
+    <mergeCell ref="B157"/>
+    <mergeCell ref="C157"/>
+    <mergeCell ref="D157"/>
+    <mergeCell ref="E157"/>
+    <mergeCell ref="F157"/>
+    <mergeCell ref="A158"/>
+    <mergeCell ref="B158"/>
+    <mergeCell ref="C158"/>
+    <mergeCell ref="D158"/>
+    <mergeCell ref="E158"/>
+    <mergeCell ref="F158"/>
+    <mergeCell ref="A159"/>
+    <mergeCell ref="B159"/>
+    <mergeCell ref="C159"/>
+    <mergeCell ref="D159"/>
+    <mergeCell ref="E159"/>
+    <mergeCell ref="F159"/>
+    <mergeCell ref="A154"/>
+    <mergeCell ref="B154"/>
+    <mergeCell ref="C154"/>
+    <mergeCell ref="D154"/>
+    <mergeCell ref="E154"/>
+    <mergeCell ref="F154"/>
+    <mergeCell ref="A155"/>
+    <mergeCell ref="B155"/>
+    <mergeCell ref="C155"/>
+    <mergeCell ref="D155"/>
+    <mergeCell ref="E155"/>
+    <mergeCell ref="F155"/>
+    <mergeCell ref="A156"/>
+    <mergeCell ref="B156"/>
+    <mergeCell ref="C156"/>
+    <mergeCell ref="D156"/>
+    <mergeCell ref="E156"/>
+    <mergeCell ref="F156"/>
+    <mergeCell ref="A151"/>
+    <mergeCell ref="B151"/>
+    <mergeCell ref="C151"/>
+    <mergeCell ref="D151"/>
+    <mergeCell ref="E151"/>
+    <mergeCell ref="F151"/>
+    <mergeCell ref="A152"/>
+    <mergeCell ref="B152"/>
+    <mergeCell ref="C152"/>
+    <mergeCell ref="D152"/>
+    <mergeCell ref="E152"/>
+    <mergeCell ref="F152"/>
+    <mergeCell ref="A153"/>
+    <mergeCell ref="B153"/>
+    <mergeCell ref="C153"/>
+    <mergeCell ref="D153"/>
+    <mergeCell ref="E153"/>
+    <mergeCell ref="F153"/>
+    <mergeCell ref="A148"/>
+    <mergeCell ref="B148"/>
+    <mergeCell ref="C148"/>
+    <mergeCell ref="D148"/>
+    <mergeCell ref="E148"/>
+    <mergeCell ref="F148"/>
+    <mergeCell ref="A149"/>
+    <mergeCell ref="B149"/>
+    <mergeCell ref="C149"/>
+    <mergeCell ref="D149"/>
+    <mergeCell ref="E149"/>
+    <mergeCell ref="F149"/>
+    <mergeCell ref="A150"/>
+    <mergeCell ref="B150"/>
+    <mergeCell ref="C150"/>
+    <mergeCell ref="D150"/>
+    <mergeCell ref="E150"/>
+    <mergeCell ref="F150"/>
+    <mergeCell ref="A145"/>
+    <mergeCell ref="B145"/>
+    <mergeCell ref="C145"/>
+    <mergeCell ref="D145"/>
+    <mergeCell ref="E145"/>
+    <mergeCell ref="F145"/>
+    <mergeCell ref="A146"/>
+    <mergeCell ref="B146"/>
+    <mergeCell ref="C146"/>
+    <mergeCell ref="D146"/>
+    <mergeCell ref="E146"/>
+    <mergeCell ref="F146"/>
+    <mergeCell ref="A147"/>
+    <mergeCell ref="B147"/>
+    <mergeCell ref="C147"/>
+    <mergeCell ref="D147"/>
+    <mergeCell ref="E147"/>
+    <mergeCell ref="F147"/>
+    <mergeCell ref="A142"/>
+    <mergeCell ref="B142"/>
+    <mergeCell ref="C142"/>
+    <mergeCell ref="D142"/>
+    <mergeCell ref="E142"/>
+    <mergeCell ref="F142"/>
+    <mergeCell ref="A143"/>
+    <mergeCell ref="B143"/>
+    <mergeCell ref="C143"/>
+    <mergeCell ref="D143"/>
+    <mergeCell ref="E143"/>
+    <mergeCell ref="F143"/>
+    <mergeCell ref="A144"/>
+    <mergeCell ref="B144"/>
+    <mergeCell ref="C144"/>
+    <mergeCell ref="D144"/>
+    <mergeCell ref="E144"/>
+    <mergeCell ref="F144"/>
+    <mergeCell ref="A139"/>
+    <mergeCell ref="B139"/>
+    <mergeCell ref="C139"/>
+    <mergeCell ref="D139"/>
+    <mergeCell ref="E139"/>
+    <mergeCell ref="F139"/>
+    <mergeCell ref="A140"/>
+    <mergeCell ref="B140"/>
+    <mergeCell ref="C140"/>
+    <mergeCell ref="D140"/>
+    <mergeCell ref="E140"/>
+    <mergeCell ref="F140"/>
+    <mergeCell ref="A141"/>
+    <mergeCell ref="B141"/>
+    <mergeCell ref="C141"/>
+    <mergeCell ref="D141"/>
+    <mergeCell ref="E141"/>
+    <mergeCell ref="F141"/>
+    <mergeCell ref="A136"/>
+    <mergeCell ref="B136"/>
+    <mergeCell ref="C136"/>
+    <mergeCell ref="D136"/>
+    <mergeCell ref="E136"/>
+    <mergeCell ref="F136"/>
+    <mergeCell ref="A137"/>
+    <mergeCell ref="B137"/>
+    <mergeCell ref="C137"/>
+    <mergeCell ref="D137"/>
+    <mergeCell ref="E137"/>
+    <mergeCell ref="F137"/>
+    <mergeCell ref="A138"/>
+    <mergeCell ref="B138"/>
+    <mergeCell ref="C138"/>
+    <mergeCell ref="D138"/>
+    <mergeCell ref="E138"/>
+    <mergeCell ref="F138"/>
+    <mergeCell ref="A133"/>
+    <mergeCell ref="B133"/>
+    <mergeCell ref="C133"/>
+    <mergeCell ref="D133"/>
+    <mergeCell ref="E133"/>
+    <mergeCell ref="F133"/>
+    <mergeCell ref="A134"/>
+    <mergeCell ref="B134"/>
+    <mergeCell ref="C134"/>
+    <mergeCell ref="D134"/>
+    <mergeCell ref="E134"/>
+    <mergeCell ref="F134"/>
+    <mergeCell ref="A135"/>
+    <mergeCell ref="B135"/>
+    <mergeCell ref="C135"/>
+    <mergeCell ref="D135"/>
+    <mergeCell ref="E135"/>
+    <mergeCell ref="F135"/>
+    <mergeCell ref="A130"/>
+    <mergeCell ref="B130"/>
+    <mergeCell ref="C130"/>
+    <mergeCell ref="D130"/>
+    <mergeCell ref="E130"/>
+    <mergeCell ref="F130"/>
+    <mergeCell ref="A131"/>
+    <mergeCell ref="B131"/>
+    <mergeCell ref="C131"/>
+    <mergeCell ref="D131"/>
+    <mergeCell ref="E131"/>
+    <mergeCell ref="F131"/>
+    <mergeCell ref="A132"/>
+    <mergeCell ref="B132"/>
+    <mergeCell ref="C132"/>
+    <mergeCell ref="D132"/>
+    <mergeCell ref="E132"/>
+    <mergeCell ref="F132"/>
+    <mergeCell ref="A127"/>
+    <mergeCell ref="B127"/>
+    <mergeCell ref="C127"/>
+    <mergeCell ref="D127"/>
+    <mergeCell ref="E127"/>
+    <mergeCell ref="F127"/>
+    <mergeCell ref="A128"/>
+    <mergeCell ref="B128"/>
+    <mergeCell ref="C128"/>
+    <mergeCell ref="D128"/>
+    <mergeCell ref="E128"/>
+    <mergeCell ref="F128"/>
+    <mergeCell ref="A129"/>
+    <mergeCell ref="B129"/>
+    <mergeCell ref="C129"/>
+    <mergeCell ref="D129"/>
+    <mergeCell ref="E129"/>
+    <mergeCell ref="F129"/>
+    <mergeCell ref="A124"/>
+    <mergeCell ref="B124"/>
+    <mergeCell ref="C124"/>
+    <mergeCell ref="D124"/>
+    <mergeCell ref="E124"/>
+    <mergeCell ref="F124"/>
+    <mergeCell ref="A125"/>
+    <mergeCell ref="B125"/>
+    <mergeCell ref="C125"/>
+    <mergeCell ref="D125"/>
+    <mergeCell ref="E125"/>
+    <mergeCell ref="F125"/>
+    <mergeCell ref="A126"/>
+    <mergeCell ref="B126"/>
+    <mergeCell ref="C126"/>
+    <mergeCell ref="D126"/>
+    <mergeCell ref="E126"/>
+    <mergeCell ref="F126"/>
+    <mergeCell ref="A121"/>
+    <mergeCell ref="B121"/>
+    <mergeCell ref="C121"/>
+    <mergeCell ref="D121"/>
+    <mergeCell ref="E121"/>
+    <mergeCell ref="F121"/>
+    <mergeCell ref="A122"/>
+    <mergeCell ref="B122"/>
+    <mergeCell ref="C122"/>
+    <mergeCell ref="D122"/>
+    <mergeCell ref="E122"/>
+    <mergeCell ref="F122"/>
+    <mergeCell ref="A123"/>
+    <mergeCell ref="B123"/>
+    <mergeCell ref="C123"/>
+    <mergeCell ref="D123"/>
+    <mergeCell ref="E123"/>
+    <mergeCell ref="F123"/>
+    <mergeCell ref="A118"/>
+    <mergeCell ref="B118"/>
+    <mergeCell ref="C118"/>
+    <mergeCell ref="D118"/>
+    <mergeCell ref="E118"/>
+    <mergeCell ref="F118"/>
+    <mergeCell ref="A119"/>
+    <mergeCell ref="B119"/>
+    <mergeCell ref="C119"/>
+    <mergeCell ref="D119"/>
+    <mergeCell ref="E119"/>
+    <mergeCell ref="F119"/>
+    <mergeCell ref="A120"/>
+    <mergeCell ref="B120"/>
+    <mergeCell ref="C120"/>
+    <mergeCell ref="D120"/>
+    <mergeCell ref="E120"/>
+    <mergeCell ref="F120"/>
+    <mergeCell ref="A115"/>
+    <mergeCell ref="B115"/>
+    <mergeCell ref="C115"/>
+    <mergeCell ref="D115"/>
+    <mergeCell ref="E115"/>
+    <mergeCell ref="F115"/>
+    <mergeCell ref="A116"/>
+    <mergeCell ref="B116"/>
+    <mergeCell ref="C116"/>
+    <mergeCell ref="D116"/>
+    <mergeCell ref="E116"/>
+    <mergeCell ref="F116"/>
+    <mergeCell ref="A117"/>
+    <mergeCell ref="B117"/>
+    <mergeCell ref="C117"/>
+    <mergeCell ref="D117"/>
+    <mergeCell ref="E117"/>
+    <mergeCell ref="F117"/>
+    <mergeCell ref="A112"/>
+    <mergeCell ref="B112"/>
+    <mergeCell ref="C112"/>
+    <mergeCell ref="D112"/>
+    <mergeCell ref="E112"/>
+    <mergeCell ref="F112"/>
+    <mergeCell ref="A113"/>
+    <mergeCell ref="B113"/>
+    <mergeCell ref="C113"/>
+    <mergeCell ref="D113"/>
+    <mergeCell ref="E113"/>
+    <mergeCell ref="F113"/>
+    <mergeCell ref="A114"/>
+    <mergeCell ref="B114"/>
+    <mergeCell ref="C114"/>
+    <mergeCell ref="D114"/>
+    <mergeCell ref="E114"/>
+    <mergeCell ref="F114"/>
+    <mergeCell ref="A109"/>
+    <mergeCell ref="B109"/>
+    <mergeCell ref="C109"/>
+    <mergeCell ref="D109"/>
+    <mergeCell ref="E109"/>
+    <mergeCell ref="F109"/>
+    <mergeCell ref="A110"/>
+    <mergeCell ref="B110"/>
+    <mergeCell ref="C110"/>
+    <mergeCell ref="D110"/>
+    <mergeCell ref="E110"/>
+    <mergeCell ref="F110"/>
+    <mergeCell ref="A111"/>
+    <mergeCell ref="B111"/>
+    <mergeCell ref="C111"/>
+    <mergeCell ref="D111"/>
+    <mergeCell ref="E111"/>
+    <mergeCell ref="F111"/>
+    <mergeCell ref="A106"/>
+    <mergeCell ref="B106"/>
+    <mergeCell ref="C106"/>
+    <mergeCell ref="D106"/>
+    <mergeCell ref="E106"/>
+    <mergeCell ref="F106"/>
+    <mergeCell ref="A107"/>
+    <mergeCell ref="B107"/>
+    <mergeCell ref="C107"/>
+    <mergeCell ref="D107"/>
+    <mergeCell ref="E107"/>
+    <mergeCell ref="F107"/>
+    <mergeCell ref="A108"/>
+    <mergeCell ref="B108"/>
+    <mergeCell ref="C108"/>
+    <mergeCell ref="D108"/>
+    <mergeCell ref="E108"/>
+    <mergeCell ref="F108"/>
+    <mergeCell ref="A103"/>
+    <mergeCell ref="B103"/>
+    <mergeCell ref="C103"/>
+    <mergeCell ref="D103"/>
+    <mergeCell ref="E103"/>
+    <mergeCell ref="F103"/>
+    <mergeCell ref="A104"/>
+    <mergeCell ref="B104"/>
+    <mergeCell ref="C104"/>
+    <mergeCell ref="D104"/>
+    <mergeCell ref="E104"/>
+    <mergeCell ref="F104"/>
+    <mergeCell ref="A105"/>
+    <mergeCell ref="B105"/>
+    <mergeCell ref="C105"/>
+    <mergeCell ref="D105"/>
+    <mergeCell ref="E105"/>
+    <mergeCell ref="F105"/>
+    <mergeCell ref="A100"/>
+    <mergeCell ref="B100"/>
+    <mergeCell ref="C100"/>
+    <mergeCell ref="D100"/>
+    <mergeCell ref="E100"/>
+    <mergeCell ref="F100"/>
+    <mergeCell ref="A101"/>
+    <mergeCell ref="B101"/>
+    <mergeCell ref="C101"/>
+    <mergeCell ref="D101"/>
+    <mergeCell ref="E101"/>
+    <mergeCell ref="F101"/>
+    <mergeCell ref="A102"/>
+    <mergeCell ref="B102"/>
+    <mergeCell ref="C102"/>
+    <mergeCell ref="D102"/>
+    <mergeCell ref="E102"/>
+    <mergeCell ref="F102"/>
+    <mergeCell ref="A97"/>
+    <mergeCell ref="B97"/>
+    <mergeCell ref="C97"/>
+    <mergeCell ref="D97"/>
+    <mergeCell ref="E97"/>
+    <mergeCell ref="F97"/>
+    <mergeCell ref="A98"/>
+    <mergeCell ref="B98"/>
+    <mergeCell ref="C98"/>
+    <mergeCell ref="D98"/>
+    <mergeCell ref="E98"/>
+    <mergeCell ref="F98"/>
+    <mergeCell ref="A99"/>
+    <mergeCell ref="B99"/>
+    <mergeCell ref="C99"/>
+    <mergeCell ref="D99"/>
+    <mergeCell ref="E99"/>
+    <mergeCell ref="F99"/>
+    <mergeCell ref="A94"/>
+    <mergeCell ref="B94"/>
+    <mergeCell ref="C94"/>
+    <mergeCell ref="D94"/>
+    <mergeCell ref="E94"/>
+    <mergeCell ref="F94"/>
+    <mergeCell ref="A95"/>
+    <mergeCell ref="B95"/>
+    <mergeCell ref="C95"/>
+    <mergeCell ref="D95"/>
+    <mergeCell ref="E95"/>
+    <mergeCell ref="F95"/>
+    <mergeCell ref="A96"/>
+    <mergeCell ref="B96"/>
+    <mergeCell ref="C96"/>
+    <mergeCell ref="D96"/>
+    <mergeCell ref="E96"/>
+    <mergeCell ref="F96"/>
+    <mergeCell ref="A91"/>
+    <mergeCell ref="B91"/>
+    <mergeCell ref="C91"/>
+    <mergeCell ref="D91"/>
+    <mergeCell ref="E91"/>
+    <mergeCell ref="F91"/>
+    <mergeCell ref="A92"/>
+    <mergeCell ref="B92"/>
+    <mergeCell ref="C92"/>
+    <mergeCell ref="D92"/>
+    <mergeCell ref="E92"/>
+    <mergeCell ref="F92"/>
+    <mergeCell ref="A93"/>
+    <mergeCell ref="B93"/>
+    <mergeCell ref="C93"/>
+    <mergeCell ref="D93"/>
+    <mergeCell ref="E93"/>
+    <mergeCell ref="F93"/>
+    <mergeCell ref="A88"/>
+    <mergeCell ref="B88"/>
+    <mergeCell ref="C88"/>
+    <mergeCell ref="D88"/>
+    <mergeCell ref="E88"/>
+    <mergeCell ref="F88"/>
+    <mergeCell ref="A89"/>
+    <mergeCell ref="B89"/>
+    <mergeCell ref="C89"/>
+    <mergeCell ref="D89"/>
+    <mergeCell ref="E89"/>
+    <mergeCell ref="F89"/>
+    <mergeCell ref="A90"/>
+    <mergeCell ref="B90"/>
+    <mergeCell ref="C90"/>
+    <mergeCell ref="D90"/>
+    <mergeCell ref="E90"/>
+    <mergeCell ref="F90"/>
+    <mergeCell ref="A85"/>
+    <mergeCell ref="B85"/>
+    <mergeCell ref="C85"/>
+    <mergeCell ref="D85"/>
+    <mergeCell ref="E85"/>
+    <mergeCell ref="F85"/>
+    <mergeCell ref="A86"/>
+    <mergeCell ref="B86"/>
+    <mergeCell ref="C86"/>
+    <mergeCell ref="D86"/>
+    <mergeCell ref="E86"/>
+    <mergeCell ref="F86"/>
+    <mergeCell ref="A87"/>
+    <mergeCell ref="B87"/>
+    <mergeCell ref="C87"/>
+    <mergeCell ref="D87"/>
+    <mergeCell ref="E87"/>
+    <mergeCell ref="F87"/>
+    <mergeCell ref="A82"/>
+    <mergeCell ref="B82"/>
+    <mergeCell ref="C82"/>
+    <mergeCell ref="D82"/>
+    <mergeCell ref="E82"/>
+    <mergeCell ref="F82"/>
+    <mergeCell ref="A83"/>
+    <mergeCell ref="B83"/>
+    <mergeCell ref="C83"/>
+    <mergeCell ref="D83"/>
+    <mergeCell ref="E83"/>
+    <mergeCell ref="F83"/>
+    <mergeCell ref="A84"/>
+    <mergeCell ref="B84"/>
+    <mergeCell ref="C84"/>
+    <mergeCell ref="D84"/>
+    <mergeCell ref="E84"/>
+    <mergeCell ref="F84"/>
+    <mergeCell ref="A79"/>
+    <mergeCell ref="B79"/>
+    <mergeCell ref="C79"/>
+    <mergeCell ref="D79"/>
+    <mergeCell ref="E79"/>
+    <mergeCell ref="F79"/>
+    <mergeCell ref="A80"/>
+    <mergeCell ref="B80"/>
+    <mergeCell ref="C80"/>
+    <mergeCell ref="D80"/>
+    <mergeCell ref="E80"/>
+    <mergeCell ref="F80"/>
+    <mergeCell ref="A81"/>
+    <mergeCell ref="B81"/>
+    <mergeCell ref="C81"/>
+    <mergeCell ref="D81"/>
+    <mergeCell ref="E81"/>
+    <mergeCell ref="F81"/>
+    <mergeCell ref="A76"/>
+    <mergeCell ref="B76"/>
+    <mergeCell ref="C76"/>
+    <mergeCell ref="D76"/>
+    <mergeCell ref="E76"/>
+    <mergeCell ref="F76"/>
+    <mergeCell ref="A77"/>
+    <mergeCell ref="B77"/>
+    <mergeCell ref="C77"/>
+    <mergeCell ref="D77"/>
+    <mergeCell ref="E77"/>
+    <mergeCell ref="F77"/>
+    <mergeCell ref="A78"/>
+    <mergeCell ref="B78"/>
+    <mergeCell ref="C78"/>
+    <mergeCell ref="D78"/>
+    <mergeCell ref="E78"/>
+    <mergeCell ref="F78"/>
+    <mergeCell ref="A73"/>
+    <mergeCell ref="B73"/>
+    <mergeCell ref="C73"/>
+    <mergeCell ref="D73"/>
+    <mergeCell ref="E73"/>
+    <mergeCell ref="F73"/>
+    <mergeCell ref="A74"/>
+    <mergeCell ref="B74"/>
+    <mergeCell ref="C74"/>
+    <mergeCell ref="D74"/>
+    <mergeCell ref="E74"/>
+    <mergeCell ref="F74"/>
+    <mergeCell ref="A75"/>
+    <mergeCell ref="B75"/>
+    <mergeCell ref="C75"/>
+    <mergeCell ref="D75"/>
+    <mergeCell ref="E75"/>
+    <mergeCell ref="F75"/>
+    <mergeCell ref="A70"/>
+    <mergeCell ref="B70"/>
+    <mergeCell ref="C70"/>
+    <mergeCell ref="D70"/>
+    <mergeCell ref="E70"/>
+    <mergeCell ref="F70"/>
+    <mergeCell ref="A71"/>
+    <mergeCell ref="B71"/>
+    <mergeCell ref="C71"/>
+    <mergeCell ref="D71"/>
+    <mergeCell ref="E71"/>
+    <mergeCell ref="F71"/>
+    <mergeCell ref="A72"/>
+    <mergeCell ref="B72"/>
+    <mergeCell ref="C72"/>
+    <mergeCell ref="D72"/>
+    <mergeCell ref="E72"/>
+    <mergeCell ref="F72"/>
+    <mergeCell ref="A67"/>
+    <mergeCell ref="B67"/>
+    <mergeCell ref="C67"/>
+    <mergeCell ref="D67"/>
+    <mergeCell ref="E67"/>
+    <mergeCell ref="F67"/>
+    <mergeCell ref="A68"/>
+    <mergeCell ref="B68"/>
+    <mergeCell ref="C68"/>
+    <mergeCell ref="D68"/>
+    <mergeCell ref="E68"/>
+    <mergeCell ref="F68"/>
+    <mergeCell ref="A69"/>
+    <mergeCell ref="B69"/>
+    <mergeCell ref="C69"/>
+    <mergeCell ref="D69"/>
+    <mergeCell ref="E69"/>
+    <mergeCell ref="F69"/>
+    <mergeCell ref="A64"/>
+    <mergeCell ref="B64"/>
+    <mergeCell ref="C64"/>
+    <mergeCell ref="D64"/>
+    <mergeCell ref="E64"/>
+    <mergeCell ref="F64"/>
+    <mergeCell ref="A65"/>
+    <mergeCell ref="B65"/>
+    <mergeCell ref="C65"/>
+    <mergeCell ref="D65"/>
+    <mergeCell ref="E65"/>
+    <mergeCell ref="F65"/>
+    <mergeCell ref="A66"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="C66"/>
+    <mergeCell ref="D66"/>
+    <mergeCell ref="E66"/>
+    <mergeCell ref="F66"/>
+    <mergeCell ref="A61"/>
+    <mergeCell ref="B61"/>
+    <mergeCell ref="C61"/>
+    <mergeCell ref="D61"/>
+    <mergeCell ref="E61"/>
+    <mergeCell ref="F61"/>
+    <mergeCell ref="A62"/>
+    <mergeCell ref="B62"/>
+    <mergeCell ref="C62"/>
+    <mergeCell ref="D62"/>
+    <mergeCell ref="E62"/>
+    <mergeCell ref="F62"/>
+    <mergeCell ref="A63"/>
+    <mergeCell ref="B63"/>
+    <mergeCell ref="C63"/>
+    <mergeCell ref="D63"/>
+    <mergeCell ref="E63"/>
+    <mergeCell ref="F63"/>
+    <mergeCell ref="A58"/>
+    <mergeCell ref="B58"/>
+    <mergeCell ref="C58"/>
+    <mergeCell ref="D58"/>
+    <mergeCell ref="E58"/>
+    <mergeCell ref="F58"/>
+    <mergeCell ref="A59"/>
+    <mergeCell ref="B59"/>
+    <mergeCell ref="C59"/>
+    <mergeCell ref="D59"/>
+    <mergeCell ref="E59"/>
+    <mergeCell ref="F59"/>
+    <mergeCell ref="A60"/>
+    <mergeCell ref="B60"/>
+    <mergeCell ref="C60"/>
+    <mergeCell ref="D60"/>
+    <mergeCell ref="E60"/>
+    <mergeCell ref="F60"/>
+    <mergeCell ref="A55"/>
+    <mergeCell ref="B55"/>
+    <mergeCell ref="C55"/>
+    <mergeCell ref="D55"/>
+    <mergeCell ref="E55"/>
+    <mergeCell ref="F55"/>
+    <mergeCell ref="A56"/>
+    <mergeCell ref="B56"/>
+    <mergeCell ref="C56"/>
+    <mergeCell ref="D56"/>
+    <mergeCell ref="E56"/>
+    <mergeCell ref="F56"/>
+    <mergeCell ref="A57"/>
+    <mergeCell ref="B57"/>
+    <mergeCell ref="C57"/>
+    <mergeCell ref="D57"/>
+    <mergeCell ref="E57"/>
+    <mergeCell ref="F57"/>
+    <mergeCell ref="A52"/>
+    <mergeCell ref="B52"/>
+    <mergeCell ref="C52"/>
+    <mergeCell ref="D52"/>
+    <mergeCell ref="E52"/>
+    <mergeCell ref="F52"/>
+    <mergeCell ref="A53"/>
+    <mergeCell ref="B53"/>
+    <mergeCell ref="C53"/>
+    <mergeCell ref="D53"/>
+    <mergeCell ref="E53"/>
+    <mergeCell ref="F53"/>
+    <mergeCell ref="A54"/>
+    <mergeCell ref="B54"/>
+    <mergeCell ref="C54"/>
+    <mergeCell ref="D54"/>
+    <mergeCell ref="E54"/>
+    <mergeCell ref="F54"/>
+    <mergeCell ref="A49"/>
+    <mergeCell ref="B49"/>
+    <mergeCell ref="C49"/>
+    <mergeCell ref="D49"/>
+    <mergeCell ref="E49"/>
+    <mergeCell ref="F49"/>
+    <mergeCell ref="A50"/>
+    <mergeCell ref="B50"/>
+    <mergeCell ref="C50"/>
+    <mergeCell ref="D50"/>
+    <mergeCell ref="E50"/>
+    <mergeCell ref="F50"/>
+    <mergeCell ref="A51"/>
+    <mergeCell ref="B51"/>
+    <mergeCell ref="C51"/>
+    <mergeCell ref="D51"/>
+    <mergeCell ref="E51"/>
+    <mergeCell ref="F51"/>
+    <mergeCell ref="A46"/>
+    <mergeCell ref="B46"/>
+    <mergeCell ref="C46"/>
+    <mergeCell ref="D46"/>
+    <mergeCell ref="E46"/>
+    <mergeCell ref="F46"/>
+    <mergeCell ref="A47"/>
+    <mergeCell ref="B47"/>
+    <mergeCell ref="C47"/>
+    <mergeCell ref="D47"/>
+    <mergeCell ref="E47"/>
+    <mergeCell ref="F47"/>
+    <mergeCell ref="A48"/>
+    <mergeCell ref="B48"/>
+    <mergeCell ref="C48"/>
+    <mergeCell ref="D48"/>
+    <mergeCell ref="E48"/>
+    <mergeCell ref="F48"/>
+    <mergeCell ref="A43"/>
+    <mergeCell ref="B43"/>
+    <mergeCell ref="C43"/>
+    <mergeCell ref="D43"/>
+    <mergeCell ref="E43"/>
+    <mergeCell ref="F43"/>
+    <mergeCell ref="A44"/>
+    <mergeCell ref="B44"/>
+    <mergeCell ref="C44"/>
+    <mergeCell ref="D44"/>
+    <mergeCell ref="E44"/>
+    <mergeCell ref="F44"/>
+    <mergeCell ref="A45"/>
+    <mergeCell ref="B45"/>
+    <mergeCell ref="C45"/>
+    <mergeCell ref="D45"/>
+    <mergeCell ref="E45"/>
+    <mergeCell ref="F45"/>
+    <mergeCell ref="A40"/>
+    <mergeCell ref="B40"/>
+    <mergeCell ref="C40"/>
+    <mergeCell ref="D40"/>
+    <mergeCell ref="E40"/>
+    <mergeCell ref="F40"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="C41"/>
+    <mergeCell ref="D41"/>
+    <mergeCell ref="E41"/>
+    <mergeCell ref="F41"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="C42"/>
+    <mergeCell ref="D42"/>
+    <mergeCell ref="E42"/>
+    <mergeCell ref="F42"/>
+    <mergeCell ref="A37"/>
+    <mergeCell ref="B37"/>
+    <mergeCell ref="C37"/>
+    <mergeCell ref="D37"/>
+    <mergeCell ref="E37"/>
+    <mergeCell ref="F37"/>
+    <mergeCell ref="A38"/>
+    <mergeCell ref="B38"/>
+    <mergeCell ref="C38"/>
+    <mergeCell ref="D38"/>
+    <mergeCell ref="E38"/>
+    <mergeCell ref="F38"/>
+    <mergeCell ref="A39"/>
+    <mergeCell ref="B39"/>
+    <mergeCell ref="C39"/>
+    <mergeCell ref="D39"/>
+    <mergeCell ref="E39"/>
+    <mergeCell ref="F39"/>
+    <mergeCell ref="A34"/>
+    <mergeCell ref="B34"/>
+    <mergeCell ref="C34"/>
+    <mergeCell ref="D34"/>
+    <mergeCell ref="E34"/>
+    <mergeCell ref="F34"/>
+    <mergeCell ref="A35"/>
+    <mergeCell ref="B35"/>
+    <mergeCell ref="C35"/>
+    <mergeCell ref="D35"/>
+    <mergeCell ref="E35"/>
+    <mergeCell ref="F35"/>
+    <mergeCell ref="A36"/>
+    <mergeCell ref="B36"/>
+    <mergeCell ref="C36"/>
+    <mergeCell ref="D36"/>
+    <mergeCell ref="E36"/>
+    <mergeCell ref="F36"/>
+    <mergeCell ref="A31"/>
+    <mergeCell ref="B31"/>
+    <mergeCell ref="C31"/>
+    <mergeCell ref="D31"/>
+    <mergeCell ref="E31"/>
+    <mergeCell ref="F31"/>
+    <mergeCell ref="A32"/>
+    <mergeCell ref="B32"/>
+    <mergeCell ref="C32"/>
+    <mergeCell ref="D32"/>
+    <mergeCell ref="E32"/>
+    <mergeCell ref="F32"/>
+    <mergeCell ref="A33"/>
+    <mergeCell ref="B33"/>
+    <mergeCell ref="C33"/>
+    <mergeCell ref="D33"/>
+    <mergeCell ref="E33"/>
+    <mergeCell ref="F33"/>
+    <mergeCell ref="A28"/>
+    <mergeCell ref="B28"/>
+    <mergeCell ref="C28"/>
+    <mergeCell ref="D28"/>
+    <mergeCell ref="E28"/>
+    <mergeCell ref="F28"/>
+    <mergeCell ref="A29"/>
+    <mergeCell ref="B29"/>
+    <mergeCell ref="C29"/>
+    <mergeCell ref="D29"/>
+    <mergeCell ref="E29"/>
+    <mergeCell ref="F29"/>
+    <mergeCell ref="A30"/>
+    <mergeCell ref="B30"/>
+    <mergeCell ref="C30"/>
+    <mergeCell ref="D30"/>
+    <mergeCell ref="E30"/>
+    <mergeCell ref="F30"/>
+    <mergeCell ref="A25"/>
+    <mergeCell ref="B25"/>
+    <mergeCell ref="C25"/>
+    <mergeCell ref="D25"/>
+    <mergeCell ref="E25"/>
+    <mergeCell ref="F25"/>
+    <mergeCell ref="A26"/>
+    <mergeCell ref="B26"/>
+    <mergeCell ref="C26"/>
+    <mergeCell ref="D26"/>
+    <mergeCell ref="E26"/>
+    <mergeCell ref="F26"/>
+    <mergeCell ref="A27"/>
+    <mergeCell ref="B27"/>
+    <mergeCell ref="C27"/>
+    <mergeCell ref="D27"/>
+    <mergeCell ref="E27"/>
+    <mergeCell ref="F27"/>
+    <mergeCell ref="A22"/>
+    <mergeCell ref="B22"/>
+    <mergeCell ref="C22"/>
+    <mergeCell ref="D22"/>
+    <mergeCell ref="E22"/>
+    <mergeCell ref="F22"/>
+    <mergeCell ref="A23"/>
+    <mergeCell ref="B23"/>
+    <mergeCell ref="C23"/>
+    <mergeCell ref="D23"/>
+    <mergeCell ref="E23"/>
+    <mergeCell ref="F23"/>
+    <mergeCell ref="A24"/>
+    <mergeCell ref="B24"/>
+    <mergeCell ref="C24"/>
+    <mergeCell ref="D24"/>
+    <mergeCell ref="E24"/>
+    <mergeCell ref="F24"/>
+    <mergeCell ref="A19"/>
+    <mergeCell ref="B19"/>
+    <mergeCell ref="C19"/>
+    <mergeCell ref="D19"/>
+    <mergeCell ref="E19"/>
+    <mergeCell ref="F19"/>
+    <mergeCell ref="A20"/>
+    <mergeCell ref="B20"/>
+    <mergeCell ref="C20"/>
+    <mergeCell ref="D20"/>
+    <mergeCell ref="E20"/>
+    <mergeCell ref="F20"/>
+    <mergeCell ref="A21"/>
+    <mergeCell ref="B21"/>
+    <mergeCell ref="C21"/>
+    <mergeCell ref="D21"/>
+    <mergeCell ref="E21"/>
+    <mergeCell ref="F21"/>
+    <mergeCell ref="A16"/>
+    <mergeCell ref="B16"/>
+    <mergeCell ref="C16"/>
+    <mergeCell ref="D16"/>
+    <mergeCell ref="E16"/>
+    <mergeCell ref="F16"/>
+    <mergeCell ref="A17"/>
+    <mergeCell ref="B17"/>
+    <mergeCell ref="C17"/>
+    <mergeCell ref="D17"/>
+    <mergeCell ref="E17"/>
+    <mergeCell ref="F17"/>
+    <mergeCell ref="A18"/>
+    <mergeCell ref="B18"/>
+    <mergeCell ref="C18"/>
+    <mergeCell ref="D18"/>
+    <mergeCell ref="E18"/>
+    <mergeCell ref="F18"/>
+    <mergeCell ref="A13"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="D13"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="A14"/>
+    <mergeCell ref="B14"/>
+    <mergeCell ref="C14"/>
+    <mergeCell ref="D14"/>
+    <mergeCell ref="E14"/>
+    <mergeCell ref="F14"/>
+    <mergeCell ref="A15"/>
+    <mergeCell ref="B15"/>
+    <mergeCell ref="C15"/>
+    <mergeCell ref="D15"/>
+    <mergeCell ref="E15"/>
+    <mergeCell ref="F15"/>
+    <mergeCell ref="A10"/>
+    <mergeCell ref="B10"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="D10"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="F10"/>
+    <mergeCell ref="A11"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="F11"/>
+    <mergeCell ref="A12"/>
+    <mergeCell ref="B12"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="D12"/>
+    <mergeCell ref="E12"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="A8"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="A9"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="D9"/>
+    <mergeCell ref="E9"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="A1"/>
+    <mergeCell ref="B1"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="E1"/>
+    <mergeCell ref="F1"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
